--- a/medicine/Enfance/Deux_jumelles/Deux_jumelles.xlsx
+++ b/medicine/Enfance/Deux_jumelles/Deux_jumelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Deux jumelles (titre original : St. Clare's), est une série de six romans pour la jeunesse écrite par Enid Blyton — la créatrice de Le Club des Cinq — et publiée au Royaume-Uni de 1941 à 1945 aux éditions Egmont Books Ltd.
@@ -514,7 +526,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie quotidienne de deux sœurs jumelles irlandaises, Isabelle et Patricia O'Sullivan, au pensionnat pour jeunes filles "Saint-Clair" (St. Clare's en VO).
 </t>
@@ -545,7 +559,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isabelle et Patricia O' Sullivan, sœurs jumelles.
 Alice O'Sullivan (Alison en VO), leur cousine, une poseuse.
@@ -585,9 +601,11 @@
           <t>Les Deux jumelles en Allemagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connue sous le titre Hanni und Nanni, la série est restée très populaire en Allemagne. Vingt-et-un romans supplémentaires ont été publiés par des auteurs allemands pendant les années 70-80. Plusieurs changements ont été effectués pour rendre les romans plus proches du public allemand : St. Clare, par exemple, devenait Lindenhof. Ces romans ont, à leur tour, mené à la création de pièces radiophoniques (66 à ce jour) et à trois films sortis respectivement en 2009, 2012 et 2013, dans lesquels les jumelles Jana et Sophia Münster jouaient les rôles-titres[1],[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connue sous le titre Hanni und Nanni, la série est restée très populaire en Allemagne. Vingt-et-un romans supplémentaires ont été publiés par des auteurs allemands pendant les années 70-80. Plusieurs changements ont été effectués pour rendre les romans plus proches du public allemand : St. Clare, par exemple, devenait Lindenhof. Ces romans ont, à leur tour, mené à la création de pièces radiophoniques (66 à ce jour) et à trois films sortis respectivement en 2009, 2012 et 2013, dans lesquels les jumelles Jana et Sophia Münster jouaient les rôles-titres.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Note : la 1re date est celle de la 1re édition française. Les résumés ci-dessous figurent sur les livres.
 Deux jumelles en pension (1964) ; (nouveau titre français en 2014 : Les jumelles à Saint-Clair)
@@ -667,9 +687,11 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1991 : Les Jumelles à St. Clare (Mischievous Twins: The Tales of St. Clare's (en))[4], série d'animation japonaise[5].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1991 : Les Jumelles à St. Clare (Mischievous Twins: The Tales of St. Clare's (en)), série d'animation japonaise.</t>
         </is>
       </c>
     </row>
